--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63AAA81-FEF6-4FD7-97BA-729DBB95CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5CC06-AB63-4F9E-8EE5-65129AC27B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -494,10 +494,10 @@
     <t>28/09/2023</t>
   </si>
   <si>
-    <t>hosp0524Id044</t>
-  </si>
-  <si>
-    <t>EONHI</t>
+    <t>EONHJ</t>
+  </si>
+  <si>
+    <t>hosp0524Id045</t>
   </si>
 </sst>
 </file>
@@ -857,13 +857,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -902,13 +902,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -916,7 +916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -934,17 +934,17 @@
   <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1090,15 +1090,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>71</v>
@@ -1190,7 +1190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1202,39 +1202,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1410,22 +1410,22 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1518,7 +1518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
@@ -1535,17 +1535,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -1610,18 +1610,18 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -1672,17 +1672,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1693,26 +1693,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -1967,26 +1947,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDDEEBC6-776C-42A0-89D3-F3F697350790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78922F5E-B45A-434C-B87F-644ADA933F95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE465D84-7DC4-4AAA-B2CD-0C98B51B55AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2003,4 +1984,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78922F5E-B45A-434C-B87F-644ADA933F95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDDEEBC6-776C-42A0-89D3-F3F697350790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>